--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Plaur.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vtn-Plaur.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H2">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I2">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J2">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N2">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O2">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P2">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q2">
-        <v>64.49647487217177</v>
+        <v>115.3056462910502</v>
       </c>
       <c r="R2">
-        <v>64.49647487217177</v>
+        <v>1037.750816619452</v>
       </c>
       <c r="S2">
-        <v>0.006007786059453727</v>
+        <v>0.007106577674579014</v>
       </c>
       <c r="T2">
-        <v>0.006007786059453727</v>
+        <v>0.01020700303657664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H3">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I3">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J3">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N3">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O3">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P3">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q3">
-        <v>34.59345096325621</v>
+        <v>41.83928549775599</v>
       </c>
       <c r="R3">
-        <v>34.59345096325621</v>
+        <v>376.5535694798039</v>
       </c>
       <c r="S3">
-        <v>0.003222347467165512</v>
+        <v>0.002578660645014473</v>
       </c>
       <c r="T3">
-        <v>0.003222347467165512</v>
+        <v>0.003703666974346071</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H4">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I4">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J4">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N4">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O4">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P4">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q4">
-        <v>188.7714167465775</v>
+        <v>268.7978256910473</v>
       </c>
       <c r="R4">
-        <v>188.7714167465775</v>
+        <v>2419.180431219426</v>
       </c>
       <c r="S4">
-        <v>0.01758388017641483</v>
+        <v>0.01656668765560396</v>
       </c>
       <c r="T4">
-        <v>0.01758388017641483</v>
+        <v>0.0237943267420606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H5">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I5">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J5">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N5">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O5">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P5">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q5">
-        <v>325.0238656000798</v>
+        <v>389.6465046571155</v>
       </c>
       <c r="R5">
-        <v>325.0238656000798</v>
+        <v>3506.81854191404</v>
       </c>
       <c r="S5">
-        <v>0.03027566781924138</v>
+        <v>0.0240148964083204</v>
       </c>
       <c r="T5">
-        <v>0.03027566781924138</v>
+        <v>0.03449200610859719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.64593349569733</v>
+        <v>6.201571333333333</v>
       </c>
       <c r="H6">
-        <v>5.64593349569733</v>
+        <v>18.604714</v>
       </c>
       <c r="I6">
-        <v>0.05923501724226955</v>
+        <v>0.05221490529364391</v>
       </c>
       <c r="J6">
-        <v>0.05923501724226955</v>
+        <v>0.07406232529850043</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N6">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O6">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P6">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q6">
-        <v>23.03121149582902</v>
+        <v>31.60803543794966</v>
       </c>
       <c r="R6">
-        <v>23.03121149582902</v>
+        <v>189.648212627698</v>
       </c>
       <c r="S6">
-        <v>0.002145335719994099</v>
+        <v>0.001948082910126061</v>
       </c>
       <c r="T6">
-        <v>0.002145335719994099</v>
+        <v>0.001865322436919931</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H7">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I7">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J7">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N7">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O7">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P7">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q7">
-        <v>75.65272830058808</v>
+        <v>138.7340933591369</v>
       </c>
       <c r="R7">
-        <v>75.65272830058808</v>
+        <v>1248.606840232232</v>
       </c>
       <c r="S7">
-        <v>0.007046980588392102</v>
+        <v>0.008550531932151601</v>
       </c>
       <c r="T7">
-        <v>0.007046980588392102</v>
+        <v>0.01228091908542842</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H8">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I8">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J8">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N8">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O8">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P8">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q8">
-        <v>40.57724010327472</v>
+        <v>50.340425877096</v>
       </c>
       <c r="R8">
-        <v>40.57724010327472</v>
+        <v>453.0638328938639</v>
       </c>
       <c r="S8">
-        <v>0.003779731805602042</v>
+        <v>0.003102607358567294</v>
       </c>
       <c r="T8">
-        <v>0.003779731805602042</v>
+        <v>0.00445619877532365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H9">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I9">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J9">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N9">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O9">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P9">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q9">
-        <v>221.4240813990246</v>
+        <v>323.4136735162573</v>
       </c>
       <c r="R9">
-        <v>221.4240813990246</v>
+        <v>2910.723061646316</v>
       </c>
       <c r="S9">
-        <v>0.02062544522150895</v>
+        <v>0.0199328000474736</v>
       </c>
       <c r="T9">
-        <v>0.02062544522150895</v>
+        <v>0.02862899132726223</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H10">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I10">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J10">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N10">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O10">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P10">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q10">
-        <v>381.2447462312247</v>
+        <v>468.8170639771822</v>
       </c>
       <c r="R10">
-        <v>381.2447462312247</v>
+        <v>4219.353575794639</v>
       </c>
       <c r="S10">
-        <v>0.03551259004755589</v>
+        <v>0.02889437757377647</v>
       </c>
       <c r="T10">
-        <v>0.03551259004755589</v>
+        <v>0.04150028510776805</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.62253671382392</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H11">
-        <v>6.62253671382392</v>
+        <v>22.384924</v>
       </c>
       <c r="I11">
-        <v>0.0694811720205131</v>
+        <v>0.06282422221945559</v>
       </c>
       <c r="J11">
-        <v>0.0694811720205131</v>
+        <v>0.0891107233935555</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N11">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O11">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P11">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q11">
-        <v>27.01502662247225</v>
+        <v>38.03033312244467</v>
       </c>
       <c r="R11">
-        <v>27.01502662247225</v>
+        <v>228.181998734668</v>
       </c>
       <c r="S11">
-        <v>0.002516424357454111</v>
+        <v>0.002343905307486625</v>
       </c>
       <c r="T11">
-        <v>0.002516424357454111</v>
+        <v>0.002244329097773148</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H12">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I12">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J12">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.4235272026005</v>
+        <v>18.59297266666667</v>
       </c>
       <c r="N12">
-        <v>11.4235272026005</v>
+        <v>55.778918</v>
       </c>
       <c r="O12">
-        <v>0.1014228802345419</v>
+        <v>0.1361024717868078</v>
       </c>
       <c r="P12">
-        <v>0.1014228802345419</v>
+        <v>0.1378163998421381</v>
       </c>
       <c r="Q12">
-        <v>948.6742305806738</v>
+        <v>1954.250127823465</v>
       </c>
       <c r="R12">
-        <v>948.6742305806738</v>
+        <v>11725.50076694079</v>
       </c>
       <c r="S12">
-        <v>0.08836811358669604</v>
+        <v>0.1204453621800772</v>
       </c>
       <c r="T12">
-        <v>0.08836811358669604</v>
+        <v>0.1153284777201331</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H13">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I13">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J13">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>6.12714460586886</v>
+        <v>6.746562</v>
       </c>
       <c r="N13">
-        <v>6.12714460586886</v>
+        <v>20.239686</v>
       </c>
       <c r="O13">
-        <v>0.05439936742123669</v>
+        <v>0.04938552757134602</v>
       </c>
       <c r="P13">
-        <v>0.05439936742123669</v>
+        <v>0.05000743575655815</v>
       </c>
       <c r="Q13">
-        <v>508.8327004032474</v>
+        <v>709.1103659021639</v>
       </c>
       <c r="R13">
-        <v>508.8327004032474</v>
+        <v>4254.662195412983</v>
       </c>
       <c r="S13">
-        <v>0.04739728814846913</v>
+        <v>0.04370425956776425</v>
       </c>
       <c r="T13">
-        <v>0.04739728814846913</v>
+        <v>0.04184757000688842</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H14">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I14">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J14">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>33.4349345224199</v>
+        <v>43.343503</v>
       </c>
       <c r="N14">
-        <v>33.4349345224199</v>
+        <v>130.030509</v>
       </c>
       <c r="O14">
-        <v>0.2968494143337083</v>
+        <v>0.3172788988591848</v>
       </c>
       <c r="P14">
-        <v>0.2968494143337083</v>
+        <v>0.3212743678538321</v>
       </c>
       <c r="Q14">
-        <v>2776.625837188998</v>
+        <v>4555.702189027766</v>
       </c>
       <c r="R14">
-        <v>2776.625837188998</v>
+        <v>27334.2131341666</v>
       </c>
       <c r="S14">
-        <v>0.2586400889357844</v>
+        <v>0.2807794111561072</v>
       </c>
       <c r="T14">
-        <v>0.2586400889357844</v>
+        <v>0.2688510497845092</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H15">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I15">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J15">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.5677814568264</v>
+        <v>62.83028666666667</v>
       </c>
       <c r="N15">
-        <v>57.5677814568264</v>
+        <v>188.49086</v>
       </c>
       <c r="O15">
-        <v>0.5111109817933327</v>
+        <v>0.4599241590742428</v>
       </c>
       <c r="P15">
-        <v>0.5111109817933327</v>
+        <v>0.4657159489602949</v>
       </c>
       <c r="Q15">
-        <v>4780.753773436879</v>
+        <v>6603.898039910973</v>
       </c>
       <c r="R15">
-        <v>4780.753773436879</v>
+        <v>39623.38823946584</v>
       </c>
       <c r="S15">
-        <v>0.4453227239265354</v>
+        <v>0.4070148850921459</v>
       </c>
       <c r="T15">
-        <v>0.4453227239265354</v>
+        <v>0.3897236577439296</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.0456490150182</v>
+        <v>105.106922</v>
       </c>
       <c r="H16">
-        <v>83.0456490150182</v>
+        <v>210.213844</v>
       </c>
       <c r="I16">
-        <v>0.8712838107372173</v>
+        <v>0.8849608724869005</v>
       </c>
       <c r="J16">
-        <v>0.8712838107372173</v>
+        <v>0.836826951307944</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.07925660360341</v>
+        <v>5.0967785</v>
       </c>
       <c r="N16">
-        <v>4.07925660360341</v>
+        <v>10.193557</v>
       </c>
       <c r="O16">
-        <v>0.0362173562171804</v>
+        <v>0.03730894270841855</v>
       </c>
       <c r="P16">
-        <v>0.0362173562171804</v>
+        <v>0.02518584758717668</v>
       </c>
       <c r="Q16">
-        <v>338.764512145044</v>
+        <v>535.706700250777</v>
       </c>
       <c r="R16">
-        <v>338.764512145044</v>
+        <v>2142.826801003108</v>
       </c>
       <c r="S16">
-        <v>0.03155559613973219</v>
+        <v>0.03301695449080586</v>
       </c>
       <c r="T16">
-        <v>0.03155559613973219</v>
+        <v>0.0210761960524836</v>
       </c>
     </row>
   </sheetData>
